--- a/07.Project Office/Project Plan.xlsx
+++ b/07.Project Office/Project Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aracj\babbii\[Team A] -  Project X (Automated Attendance System)\ProjectX\07. Project Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\AttendanceAppClassroomFinal\07.Project Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEB2B2E-6FFF-4CCE-951B-C167F9E394D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E71E20-3C5C-46F8-97BE-DB70F03E0147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>Project X - Automated Attendance System</t>
   </si>
@@ -342,6 +342,30 @@
   </si>
   <si>
     <t>Start Date: March 04, 2025</t>
+  </si>
+  <si>
+    <t>April 8, 2025</t>
+  </si>
+  <si>
+    <t>April 10, 2025</t>
+  </si>
+  <si>
+    <t>April 14, 2025</t>
+  </si>
+  <si>
+    <t>April 1, 2025</t>
+  </si>
+  <si>
+    <t>March 28, 2025</t>
+  </si>
+  <si>
+    <t>May 19, 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -1007,9 +1031,9 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="72" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1073,13 +1097,13 @@
       <c r="G2" s="44"/>
       <c r="H2" s="43" t="str">
         <f ca="1">"Days Left: " &amp; (DATE(2025,5,2) - TODAY()) &amp; " days"</f>
-        <v>Days Left: 17 days</v>
+        <v>Days Left: -16 days</v>
       </c>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
       <c r="K2" s="41" t="str">
         <f>"Task Done: " &amp; COUNTIF(L3:L31, "Done") &amp; " / " &amp; (COUNTIF(L3:L31, "Done") + COUNTIF(L3:L31, "Ongoing")) &amp; " (" &amp; TEXT(COUNTIF(L3:L31, "Done") / (COUNTIF(L3:L31, "Done") + COUNTIF(L3:L31, "Ongoing")), "0.00%") &amp; ")"</f>
-        <v>Task Done: 19 / 24 (79.17%)</v>
+        <v>Task Done: 25 / 26 (96.15%)</v>
       </c>
       <c r="L2" s="41"/>
       <c r="O2" s="2"/>
@@ -2094,10 +2118,12 @@
       <c r="J21" s="36">
         <v>45752</v>
       </c>
-      <c r="K21" s="36"/>
+      <c r="K21" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="L21" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>Ongoing</v>
+        <f>IF(K21&lt;&gt;"","Done", IF(J21&lt;&gt;"","Ongoing","Pending"))</f>
+        <v>Done</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2196,10 +2222,12 @@
       <c r="J23" s="36">
         <v>45750</v>
       </c>
-      <c r="K23" s="36"/>
+      <c r="K23" s="36" t="s">
+        <v>86</v>
+      </c>
       <c r="L23" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Ongoing</v>
+        <v>Done</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2246,10 +2274,12 @@
       <c r="J24" s="31">
         <v>45757</v>
       </c>
-      <c r="K24" s="31"/>
+      <c r="K24" s="31" t="s">
+        <v>88</v>
+      </c>
       <c r="L24" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Ongoing</v>
+        <v>Done</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2349,11 +2379,15 @@
         <f t="shared" si="0"/>
         <v>45775</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
+      <c r="J26" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>89</v>
+      </c>
       <c r="L26" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Done</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2456,10 +2490,12 @@
       <c r="J28" s="31">
         <v>45722</v>
       </c>
-      <c r="K28" s="31"/>
+      <c r="K28" s="31" t="s">
+        <v>91</v>
+      </c>
       <c r="L28" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>Ongoing</v>
+        <f>IF(K28&lt;&gt;"","Done", IF(J28&lt;&gt;"","Ongoing","Pending"))</f>
+        <v>Done</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2503,11 +2539,15 @@
         <f t="shared" si="0"/>
         <v>45778</v>
       </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="J29" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="L29" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Pending</v>
+        <v>Done</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>

--- a/07.Project Office/Project Plan.xlsx
+++ b/07.Project Office/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\AttendanceAppClassroomFinal\07.Project Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E71E20-3C5C-46F8-97BE-DB70F03E0147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACDCC3F-96D5-4C36-BE5B-1EEC0A98A5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>Project X - Automated Attendance System</t>
   </si>
@@ -124,9 +124,6 @@
 Conceptual Model
 Requirement Diagrams
 Project Plan</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
   </si>
   <si>
     <t>Detailed Design</t>
@@ -360,12 +357,6 @@
   </si>
   <si>
     <t>May 19, 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1023,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="72" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -1085,13 +1076,13 @@
     </row>
     <row r="2" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
@@ -1103,7 +1094,7 @@
       <c r="J2" s="43"/>
       <c r="K2" s="41" t="str">
         <f>"Task Done: " &amp; COUNTIF(L3:L31, "Done") &amp; " / " &amp; (COUNTIF(L3:L31, "Done") + COUNTIF(L3:L31, "Ongoing")) &amp; " (" &amp; TEXT(COUNTIF(L3:L31, "Done") / (COUNTIF(L3:L31, "Done") + COUNTIF(L3:L31, "Ongoing")), "0.00%") &amp; ")"</f>
-        <v>Task Done: 25 / 26 (96.15%)</v>
+        <v>Task Done: 25 / 25 (100.00%)</v>
       </c>
       <c r="L2" s="41"/>
       <c r="O2" s="2"/>
@@ -1140,19 +1131,19 @@
         <v>6</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="24" t="s">
+      <c r="K3" s="27" t="s">
         <v>82</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>83</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>7</v>
@@ -1512,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="30">
         <v>12</v>
@@ -1558,13 +1549,13 @@
         <v>3.2</v>
       </c>
       <c r="D11" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>75</v>
-      </c>
       <c r="F11" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="35">
         <v>5</v>
@@ -1584,7 +1575,7 @@
         <v>45737</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1607,16 +1598,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="28">
         <v>4.0999999999999996</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>18</v>
@@ -1665,10 +1656,10 @@
         <v>4.2</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>21</v>
@@ -1717,10 +1708,10 @@
         <v>4.3</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>14</v>
@@ -1769,13 +1760,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D15" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>73</v>
-      </c>
       <c r="F15" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="35">
         <v>28</v>
@@ -1795,7 +1786,7 @@
         <v>45744</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1818,16 +1809,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="28">
         <v>5</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>10</v>
@@ -1850,7 +1841,7 @@
         <v>45730</v>
       </c>
       <c r="L16" s="32" t="str">
-        <f t="shared" ref="L16:L29" si="2">IF(K16&lt;&gt;"","Done", IF(J16&lt;&gt;"","Ongoing","Pending"))</f>
+        <f t="shared" ref="L16:L27" si="2">IF(K16&lt;&gt;"","Done", IF(J16&lt;&gt;"","Ongoing","Pending"))</f>
         <v>Done</v>
       </c>
       <c r="M16" s="1"/>
@@ -1874,16 +1865,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="33">
         <v>6.1</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>10</v>
@@ -1932,10 +1923,10 @@
         <v>6.2</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>18</v>
@@ -1984,10 +1975,10 @@
         <v>6.3</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>14</v>
@@ -2034,16 +2025,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="28">
         <v>7</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>10</v>
@@ -2090,16 +2081,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="33">
         <v>8.1</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>10</v>
@@ -2119,7 +2110,7 @@
         <v>45752</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L21" s="32" t="str">
         <f>IF(K21&lt;&gt;"","Done", IF(J21&lt;&gt;"","Ongoing","Pending"))</f>
@@ -2148,10 +2139,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>18</v>
@@ -2200,10 +2191,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>10</v>
@@ -2223,7 +2214,7 @@
         <v>45750</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L23" s="32" t="str">
         <f t="shared" si="2"/>
@@ -2252,10 +2243,10 @@
         <v>8.4</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>14</v>
@@ -2275,7 +2266,7 @@
         <v>45757</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L24" s="32" t="str">
         <f t="shared" si="2"/>
@@ -2302,16 +2293,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="33">
         <v>9.1</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>21</v>
@@ -2360,10 +2351,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="28" t="s">
         <v>21</v>
@@ -2380,10 +2371,10 @@
         <v>45775</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L26" s="32" t="str">
         <f t="shared" si="2"/>
@@ -2412,10 +2403,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="33" t="s">
         <v>14</v>
@@ -2462,16 +2453,16 @@
         <v>10</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="28">
         <v>10.1</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="28" t="s">
         <v>18</v>
@@ -2491,7 +2482,7 @@
         <v>45722</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L28" s="32" t="str">
         <f>IF(K28&lt;&gt;"","Done", IF(J28&lt;&gt;"","Ongoing","Pending"))</f>
@@ -2520,13 +2511,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D29" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="F29" s="33" t="s">
         <v>69</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>70</v>
       </c>
       <c r="G29" s="35">
         <v>5</v>
@@ -2539,15 +2530,11 @@
         <f t="shared" si="0"/>
         <v>45778</v>
       </c>
-      <c r="J29" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29" s="40" t="s">
-        <v>92</v>
-      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v>Done</v>
+        <f>IF(K29&lt;&gt;"","Done", IF(J29&lt;&gt;"","Ongoing","Pending"))</f>
+        <v>Pending</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
